--- a/Equipment List.xlsx
+++ b/Equipment List.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jstyl\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jstyl\OneDrive\Desktop\Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC6AB3D-6297-4A10-A625-F724934C5EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87016DAD-8049-4634-9F70-4FF2B7D39BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{17866860-54E5-4431-BC96-A73E4FC581CD}"/>
   </bookViews>
@@ -35,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="61">
-  <si>
-    <t>Equipment Model</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="71">
   <si>
     <t>Manufacturer</t>
   </si>
@@ -46,9 +43,6 @@
     <t>Accessories</t>
   </si>
   <si>
-    <t>Unit</t>
-  </si>
-  <si>
     <t>GPS Tracker Car TKSTAR TK905</t>
   </si>
   <si>
@@ -67,9 +61,6 @@
     <t>GPS/SMS/GPRS Tracker Vehicle Tracking System V2.0-103AB</t>
   </si>
   <si>
-    <t>GPS Antenna x1, GSM Antenna x1, Microphone x1, Remote Controller x1, Relay x1, Wiring x1</t>
-  </si>
-  <si>
     <t>GPS Tracker</t>
   </si>
   <si>
@@ -77,9 +68,6 @@
   </si>
   <si>
     <t>Logitech</t>
-  </si>
-  <si>
-    <t>Tripod x1</t>
   </si>
   <si>
     <t>Soil K Sensor</t>
@@ -141,27 +129,7 @@
     <t>LED Strip Safety RGB LED Strip Combo 12V/24V</t>
   </si>
   <si>
-    <t>Cytron Marketplace</t>
-  </si>
-  <si>
-    <t>Power Adapter 12V x2, USB 2.0 Ethernet
-Adapter x1, Antenna x1, Extendable
-Antenna x1, Nylon Cable Ties 2.5x150mm
-Scissor x1</t>
-  </si>
-  <si>
     <t>No.</t>
-  </si>
-  <si>
-    <t>Box 2</t>
-  </si>
-  <si>
-    <t>Box 1</t>
-  </si>
-  <si>
-    <t>HF6208 I/O Controller x1, Voltage
-Supplier EDR-120-24 (24V) x1,
-Power Supply x1</t>
   </si>
   <si>
     <t>Hotak Pro Tools</t>
@@ -216,10 +184,6 @@
     <t>GACUN-1202 (12V)</t>
   </si>
   <si>
-    <t>ZLAN 6684 8 Port Remote I/O Controller x1, Voltage Supplier EDR-120-24 (24V) x1,
-Conductor S-K10 x1, CGMJ-12A x1</t>
-  </si>
-  <si>
     <t>Raspberry Pi Model 4 Model B 8GB RAM</t>
   </si>
   <si>
@@ -227,16 +191,75 @@
 Foundation</t>
   </si>
   <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>GPS Antenna x1, GSM Antenna x1, Remote Controller x1, Relay x1, Wiring x1</t>
+  </si>
+  <si>
+    <t>Items</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>Power Adapter 12V</t>
+  </si>
+  <si>
+    <t>Antenna</t>
+  </si>
+  <si>
+    <t>Extendable Antenna</t>
+  </si>
+  <si>
+    <t>Nylon Cable Ties 2.5x150mm</t>
+  </si>
+  <si>
+    <t>Scissor</t>
+  </si>
+  <si>
+    <t>USB 2.0 Ethernet Adapter</t>
+  </si>
+  <si>
+    <t>HF6208 I/O Controller</t>
+  </si>
+  <si>
+    <t>Power Supply</t>
+  </si>
+  <si>
+    <t>ZLAN 6684 8 Port Remote I/O Controller</t>
+  </si>
+  <si>
+    <t>Conductor S-K10 x1</t>
+  </si>
+  <si>
+    <t>Conductor CGMJ-12A</t>
+  </si>
+  <si>
+    <t>Voltage Supplier EDR-120-24 (24V)</t>
+  </si>
+  <si>
+    <t>Tripod</t>
+  </si>
+  <si>
+    <t>HDTV to Micro Cable</t>
+  </si>
+  <si>
+    <t>UK Plug (5V)</t>
+  </si>
+  <si>
     <t>Micro SD Card x1, Micro SD Card
-Reader x1, Casing x1, HDTV
-to Micro Cable x1, UK Plug (5V) x1</t>
+Reader x1, Casing x1</t>
+  </si>
+  <si>
+    <t>Microphone</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,8 +275,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -266,8 +296,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -275,11 +329,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -290,6 +386,34 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -604,10 +728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2002E5FA-904F-4DF1-A8F1-6DC220445DEF}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G38" sqref="G37:G38"/>
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -615,137 +739,139 @@
     <col min="1" max="1" width="7.77734375" customWidth="1"/>
     <col min="2" max="2" width="50.77734375" customWidth="1"/>
     <col min="3" max="3" width="16.88671875" customWidth="1"/>
-    <col min="4" max="4" width="34.6640625" customWidth="1"/>
+    <col min="4" max="4" width="42.5546875" customWidth="1"/>
     <col min="5" max="5" width="11.77734375" customWidth="1"/>
+    <col min="6" max="6" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="E3" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="D4" s="1"/>
       <c r="E4" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D6" s="1"/>
       <c r="E6" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -753,44 +879,46 @@
         <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="1"/>
       <c r="E11" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -798,88 +926,86 @@
         <v>20</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="1"/>
       <c r="E12" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="E13" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
       <c r="E14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="E15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="2" t="s">
-        <v>30</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="1"/>
       <c r="E17" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -887,10 +1013,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1">
@@ -902,11 +1028,9 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1">
         <v>1</v>
@@ -917,10 +1041,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1">
@@ -932,55 +1056,51 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="C22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="1"/>
       <c r="E22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="D23" s="1"/>
       <c r="E23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="D24" s="1"/>
       <c r="E24" s="1">
         <v>1</v>
       </c>
@@ -990,7 +1110,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>40</v>
@@ -1005,27 +1125,27 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -1035,10 +1155,12 @@
       <c r="B28" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -1059,12 +1181,8 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" s="1"/>
+        <v>60</v>
+      </c>
       <c r="E30" s="1">
         <v>1</v>
       </c>
@@ -1073,13 +1191,11 @@
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+      <c r="B31" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="E31" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -1087,14 +1203,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D32" s="1"/>
+        <v>61</v>
+      </c>
       <c r="E32" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -1102,12 +1214,8 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D33" s="1"/>
+        <v>62</v>
+      </c>
       <c r="E33" s="1">
         <v>1</v>
       </c>
@@ -1117,35 +1225,214 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+        <v>63</v>
+      </c>
       <c r="E34" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="5"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E38" s="1">
+        <v>2</v>
+      </c>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1</v>
+      </c>
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1</v>
+      </c>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E35" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G38">
-        <v>0</v>
-      </c>
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+      <c r="F43" s="14"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1">
+        <v>2</v>
+      </c>
+      <c r="F44" s="13"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="1">
+        <v>2</v>
+      </c>
+      <c r="F45" s="13"/>
+    </row>
+    <row r="46" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1</v>
+      </c>
+      <c r="F46" s="11"/>
+      <c r="G46" s="8"/>
+    </row>
+    <row r="47" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="10">
+        <v>1</v>
+      </c>
+      <c r="F47" s="12"/>
+    </row>
+    <row r="48" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="9">
+        <v>1</v>
+      </c>
+      <c r="F48" s="12"/>
+      <c r="G48" s="7"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="F50" s="15"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F51" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
